--- a/examples/Abatement/Data/Othdata_categoryexperiment_ID.xlsx
+++ b/examples/Abatement/Data/Othdata_categoryexperiment_ID.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Y" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>mu/n</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>out1</t>
+  </si>
+  <si>
+    <t>Y_gas</t>
+  </si>
+  <si>
+    <t>Y_oil</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -481,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -492,23 +498,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>0.5</v>
       </c>
     </row>
@@ -519,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +577,22 @@
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -560,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
